--- a/data/data for AHP.xlsx
+++ b/data/data for AHP.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WeChat Files\WeChat Files\wxid_t401gupgmzml11\FileStorage\File\2020-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode\MCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A118DD-83D7-4B9F-B1F3-01775E931FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A9BD7A-8E4F-44B2-8621-B920A3D8B6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="610" windowWidth="13700" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="430" windowWidth="13700" windowHeight="7810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>一级指数</t>
   </si>
@@ -48,9 +49,6 @@
     <t>无量纲化数值</t>
   </si>
   <si>
-    <t>权重</t>
-  </si>
-  <si>
     <t xml:space="preserve">中国 </t>
   </si>
   <si>
@@ -66,9 +64,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>I_S</t>
-  </si>
-  <si>
     <t>地区总人口数</t>
   </si>
   <si>
@@ -93,9 +88,6 @@
     <t>可降解塑料的产量</t>
   </si>
   <si>
-    <t>I_I</t>
-  </si>
-  <si>
     <t>人均收入</t>
   </si>
   <si>
@@ -105,9 +97,6 @@
     <t>（P_Y)</t>
   </si>
   <si>
-    <t>禁塑令的影响的塑料用量降幅</t>
-  </si>
-  <si>
     <t>r_C</t>
   </si>
   <si>
@@ -138,45 +127,14 @@
     <t>规范的垃圾填埋场的占地面积</t>
   </si>
   <si>
-    <t>Y_import</t>
-  </si>
-  <si>
-    <t>垃圾进口量</t>
-  </si>
-  <si>
-    <t>Y_export</t>
-  </si>
-  <si>
-    <t>垃圾出口量</t>
-  </si>
-  <si>
-    <t>[1]马占峰,姜宛君,杨森.中国塑料加工工业(2018)[J].中国塑料,2019,33(06):127-131+146.</t>
-  </si>
-  <si>
-    <t>中国产业信息网</t>
-  </si>
-  <si>
-    <t>中国统计年鉴2016</t>
-  </si>
-  <si>
-    <t>[1]夏旻.“十二五”中国非正规生活垃圾填埋场存量整治工作进展[J].环境科学与管理,2016,41(07):18-21.</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/eurostat/statistics</t>
-  </si>
-  <si>
-    <t>Plastic waste inputs from land into the ocean</t>
-  </si>
-  <si>
-    <t>欧盟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>印度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -184,7 +142,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -200,6 +157,94 @@
       </rPr>
       <t>m^2</t>
     </r>
+  </si>
+  <si>
+    <t>Y_import</t>
+  </si>
+  <si>
+    <t>[1]马占峰,姜宛君,杨森.中国塑料加工工业(2018)[J].中国塑料,2019,33(06):127-131+146.</t>
+  </si>
+  <si>
+    <t>中国产业信息网</t>
+  </si>
+  <si>
+    <t>中国统计年鉴2016</t>
+  </si>
+  <si>
+    <t>[1]夏旻.“十二五”中国非正规生活垃圾填埋场存量整治工作进展[J].环境科学与管理,2016,41(07):18-21.</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/statistics</t>
+  </si>
+  <si>
+    <t>Plastic waste inputs from land into the ocean</t>
+  </si>
+  <si>
+    <t>二级指数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧盟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>印度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_I</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_r^C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_r^P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁塑令的影响的塑料用量降幅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾进口量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(P_I)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_I</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -208,9 +253,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,21 +270,28 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -268,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,23 +330,50 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,11 +381,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -600,558 +682,643 @@
     <col min="12" max="12" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4044</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43165</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3438</v>
+      </c>
+      <c r="I3" s="9">
+        <f>(F3-AVERAGE($F3:$H3))/_xlfn.STDEV.P($F3:$H3)</f>
+        <v>-0.69074180517846406</v>
+      </c>
+      <c r="J3" s="9">
+        <f>(G3-AVERAGE($F3:$H3))/_xlfn.STDEV.P($F3:$H3)</f>
+        <v>1.4140882735223039</v>
+      </c>
+      <c r="K3" s="9">
+        <f>(H3-AVERAGE($F3:$H3))/_xlfn.STDEV.P($F3:$H3)</f>
+        <v>-0.72334646834383975</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3" si="0">I3</f>
+        <v>-0.69074180517846406</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3" si="1">J3</f>
+        <v>1.4140882735223039</v>
+      </c>
+      <c r="N3" s="9">
+        <f t="shared" ref="N3" si="2">K3</f>
+        <v>-0.72334646834383975</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F4" s="1">
+        <v>14.000500000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13.26</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I15" si="3">(F4-AVERAGE($F4:$H4))/_xlfn.STDEV.P($F4:$H4)</f>
+        <v>0.79693243872201536</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ref="J4:J15" si="4">(G4-AVERAGE($F4:$H4))/_xlfn.STDEV.P($F4:$H4)</f>
+        <v>-1.4102339872230003</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K15" si="5">(H4-AVERAGE($F4:$H4))/_xlfn.STDEV.P($F4:$H4)</f>
+        <v>0.61330154850098451</v>
+      </c>
+      <c r="L4" s="21">
+        <f>AVERAGE(I4:I6)</f>
+        <v>0.23283147494966294</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" ref="M4:N4" si="6">AVERAGE(J4:J6)</f>
+        <v>0.34667599417198836</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="6"/>
+        <v>-0.57950746912165185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
-        <v>14.000500000000001</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H3" s="1">
-        <v>13.26</v>
-      </c>
-      <c r="I3" s="12">
-        <f>(F3-AVERAGE($F3:$H3))/_xlfn.STDEV.P($F3:$H3)</f>
-        <v>0.79693243872201536</v>
-      </c>
-      <c r="J3" s="12">
-        <f t="shared" ref="J3:K3" si="0">(G3-AVERAGE($F3:$H3))/_xlfn.STDEV.P($F3:$H3)</f>
-        <v>-1.4102339872230003</v>
-      </c>
-      <c r="K3" s="12">
-        <f t="shared" si="0"/>
-        <v>0.61330154850098451</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" t="s">
+      <c r="F5" s="2">
+        <v>3274</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6392.7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1964</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.32456027608240373</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="4"/>
+        <v>1.3543352837420983</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.0297750076596948</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2">
-        <v>3274</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6392.7</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1964</v>
-      </c>
-      <c r="I4" s="12">
-        <f>(F4-AVERAGE($F4:$H4))/_xlfn.STDEV.P($F4:$H4)</f>
-        <v>-0.32456027608240373</v>
-      </c>
-      <c r="J4" s="12">
-        <f t="shared" ref="J4:K16" si="1">(G4-AVERAGE($F4:$H4))/_xlfn.STDEV.P($F4:$H4)</f>
-        <v>1.3543352837420983</v>
-      </c>
-      <c r="K4" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.0297750076596948</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
+      <c r="F6" s="2">
+        <v>118.62860000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>145.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="3"/>
+        <v>0.2261222622093772</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="4"/>
+        <v>1.095926685996867</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.3220489482062452</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2">
-        <v>118.62860000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>145.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>70.8</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" ref="I5:I16" si="2">(F5-AVERAGE($F5:$H5))/_xlfn.STDEV.P($F5:$H5)</f>
-        <v>0.2261222622093772</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="1"/>
-        <v>1.095926685996867</v>
-      </c>
-      <c r="K5" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.3220489482062452</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H7" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="I6" s="12">
-        <f t="shared" si="2"/>
+      <c r="I7" s="9">
+        <f t="shared" si="3"/>
         <v>-0.56625725896790935</v>
       </c>
-      <c r="J6" s="12">
-        <f t="shared" si="1"/>
+      <c r="J7" s="9">
+        <f t="shared" si="4"/>
         <v>1.4054095824986674</v>
       </c>
-      <c r="K6" s="12">
-        <f t="shared" si="1"/>
+      <c r="K7" s="9">
+        <f t="shared" si="5"/>
         <v>-0.83915232353075742</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="3" t="s">
+      <c r="L7" s="9">
+        <f>I7</f>
+        <v>-0.56625725896790935</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" ref="M7:N9" si="7">J7</f>
+        <v>1.4054095824986674</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.83915232353075742</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.51820988737094442</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="4"/>
+        <v>1.3986635795060445</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.88045369213509972</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" ref="L8:L9" si="8">I8</f>
+        <v>-0.51820988737094442</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3986635795060445</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.88045369213509972</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.16E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-7.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="I9" s="9">
+        <f>(F9-AVERAGE($F9:$H9))/_xlfn.STDEV.P($F9:$H9)</f>
+        <v>0.69752170412181502</v>
+      </c>
+      <c r="J9" s="9">
+        <f>(G9-AVERAGE($F9:$H9))/_xlfn.STDEV.P($F9:$H9)</f>
+        <v>-1.4141704466343981</v>
+      </c>
+      <c r="K9" s="9">
+        <f>(H9-AVERAGE($F9:$H9))/_xlfn.STDEV.P($F9:$H9)</f>
+        <v>0.71664874251258315</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="8"/>
+        <v>0.69752170412181502</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="7"/>
+        <v>-1.4141704466343981</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="7"/>
+        <v>0.71664874251258315</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1">
-        <v>4044</v>
-      </c>
-      <c r="G7" s="1">
-        <v>43165</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3438</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.69074180517846406</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="1"/>
-        <v>1.4140882735223039</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.72334646834383975</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="3" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.69994622002388285</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="4"/>
+        <v>1.4141894727905395</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.71424325276665668</v>
+      </c>
+      <c r="L10" s="21">
+        <f>AVERAGE(I10:I12)</f>
+        <v>-0.44856145977210088</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" ref="M10:N10" si="9">AVERAGE(J10:J12)</f>
+        <v>1.3739270222586775</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" si="9"/>
+        <v>-0.92536556248657664</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.33361098418479757</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.3569852194543792</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.0233742352695816</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.246</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F12" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.31212717510762233</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="4"/>
+        <v>1.3506063745311141</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.0384791994234914</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3688</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.70282482297906756</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="4"/>
+        <v>1.4142049364695184</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.71138011349045083</v>
+      </c>
+      <c r="L13" s="21">
+        <f>AVERAGE(I13:I15)</f>
+        <v>5.6267867979092516E-3</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" ref="M13:N13" si="10">AVERAGE(J13:J15)</f>
+        <v>0.57090878184605998</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" si="10"/>
+        <v>-0.57653556864396904</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G14" s="5">
         <v>0.5</v>
       </c>
-      <c r="H8" s="5">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.51820988737094442</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="1"/>
-        <v>1.3986635795060445</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.88045369213509972</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4.3E-3</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70603875976600661</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="1"/>
-        <v>1.414213024926668</v>
-      </c>
-      <c r="K9" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.70817426516066118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1">
-        <v>42</v>
-      </c>
-      <c r="H10" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.69863867192215234</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="1"/>
-        <v>1.4141798923585505</v>
-      </c>
-      <c r="K10" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.7155412204363979</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.127</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.63589303136603825</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="1"/>
-        <v>1.4118980865923911</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.77600505522635199</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="H14" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.59420840562776911</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="4"/>
+        <v>1.4084939985250824</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.81428559289731317</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1">
-        <v>25.7</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3688</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70282482297906756</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="1"/>
-        <v>1.4142049364695184</v>
-      </c>
-      <c r="K12" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.71138011349045083</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1.97</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.87789375270795322</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.52124941567034722</v>
-      </c>
-      <c r="K13" s="12">
-        <f t="shared" si="1"/>
-        <v>1.3991431683783002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="F15" s="6">
         <v>3.6261999999999999</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <v>1.7</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <v>2.42</v>
       </c>
-      <c r="I14" s="12">
-        <f t="shared" si="2"/>
+      <c r="I15" s="9">
+        <f t="shared" si="3"/>
         <v>1.3139135890005644</v>
       </c>
-      <c r="J14" s="12">
-        <f t="shared" si="1"/>
+      <c r="J15" s="9">
+        <f t="shared" si="4"/>
         <v>-1.109972589456421</v>
       </c>
-      <c r="K14" s="12">
-        <f t="shared" si="1"/>
+      <c r="K15" s="9">
+        <f t="shared" si="5"/>
         <v>-0.20394099954414316</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5.16E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.11393793003611236</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.1637945710831474</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="1"/>
-        <v>1.2777325011192597</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="1"/>
-        <v>1.4142135623730949</v>
-      </c>
-      <c r="K16" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.70710678118654746</v>
-      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B12:B13"/>
+  <mergeCells count="21">
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B3:B7"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
@@ -1160,5 +1327,176 @@
     <hyperlink ref="A23" r:id="rId1" tooltip="https://ec.europa.eu/eurostat/statistics" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793AF4C6-1461-4648-AA2B-2E1BD161D4B7}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="8.7265625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16">
+        <v>-0.69074180517846406</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.23283147494966294</v>
+      </c>
+      <c r="D2" s="16">
+        <v>-0.56625725896790935</v>
+      </c>
+      <c r="E2" s="16">
+        <v>-0.51820988737094442</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.69752170412181502</v>
+      </c>
+      <c r="G2" s="16">
+        <v>-0.44856145977210088</v>
+      </c>
+      <c r="H2" s="16">
+        <v>5.6267867979092516E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1.4140882735223039</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.34667599417198836</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1.4054095824986674</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1.3986635795060445</v>
+      </c>
+      <c r="F3" s="16">
+        <v>-1.4141704466343981</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1.3739270222586775</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.57090878184605998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="16">
+        <v>-0.72334646834383975</v>
+      </c>
+      <c r="C4" s="17">
+        <v>-0.57950746912165185</v>
+      </c>
+      <c r="D4" s="16">
+        <v>-0.83915232353075742</v>
+      </c>
+      <c r="E4" s="16">
+        <v>-0.88045369213509972</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.71664874251258315</v>
+      </c>
+      <c r="G4" s="16">
+        <v>-0.92536556248657664</v>
+      </c>
+      <c r="H4" s="16">
+        <v>-0.57653556864396904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" s="11"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="11"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="16"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>